--- a/project/files/tae.xlsx
+++ b/project/files/tae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,8 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>jnaskjbdsd</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/project/files/tae.xlsx
+++ b/project/files/tae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>jnaskjbdsd</t>
+          <t>ANSADBASD</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>JNSADJBDJB</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MSDKASAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MNASKJDJSD</t>
         </is>
       </c>
     </row>

--- a/project/files/tae.xlsx
+++ b/project/files/tae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ANSADBASD</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>JNSADJBDJB</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MSDKASAND</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MNASKJDJSD</t>
+          <t>mansndsd</t>
         </is>
       </c>
     </row>

--- a/project/files/tae.xlsx
+++ b/project/files/tae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>mansndsd</t>
+          <t>Whats your name?</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gender: </t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Domain intrested?</t>
         </is>
       </c>
     </row>
